--- a/mastertables/MasterTables2.xlsx
+++ b/mastertables/MasterTables2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1362">
   <si>
     <t xml:space="preserve">WAV</t>
   </si>
@@ -3979,34 +3979,37 @@
     <t xml:space="preserve">Celular Samsung SM-J510MN</t>
   </si>
   <si>
+    <t xml:space="preserve">No SE CONOCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiomoth sin carcasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterproof case Audiomoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja plástica modelo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja Impresión 3D modelo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolsa ziploc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microfono integrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiomoth externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMX-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sennheiser direccional</t>
+  </si>
+  <si>
     <t xml:space="preserve">No aplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audiomoth sin carcasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterproof case Audiomoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caja plástica modelo 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caja Impresión 3D modelo 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsa ziploc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microfono integrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audiomoth externo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMX-II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sennheiser direccional</t>
   </si>
   <si>
     <t xml:space="preserve">No se conoce</t>
@@ -4216,31 +4219,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4255,7 +4255,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4264,46 +4264,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4312,50 +4311,47 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4364,30 +4360,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4396,35 +4389,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4433,71 +4423,70 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4506,50 +4495,47 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4558,46 +4544,45 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4606,56 +4591,55 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4664,40 +4648,37 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4706,50 +4687,47 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -4758,20 +4736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A246"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,7 +5984,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -6016,20 +5993,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,7 +6176,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -6209,20 +6185,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A1032"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11388,7 +11363,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -11397,24 +11372,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -11423,24 +11395,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -11449,20 +11418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11518,7 +11486,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -11527,20 +11495,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11575,7 +11540,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -11584,20 +11549,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11621,13 +11583,13 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1313</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.790277777777778" right="0.790277777777778" top="1.02013888888889" bottom="1.02013888888889" header="0.790277777777778" footer="0.790277777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
